--- a/assets/imports/contact_import_form_excel.xlsx
+++ b/assets/imports/contact_import_form_excel.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/loatchoeun/Desktop/imports/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/c2/assets/imports/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="460" windowWidth="25600" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="contact_form_import" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>contact_type</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>registered_date</t>
+  </si>
+  <si>
+    <t>currency</t>
   </si>
 </sst>
 </file>
@@ -476,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X7"/>
+  <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -493,7 +496,7 @@
     <col min="24" max="24" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -566,38 +569,41 @@
       <c r="X1" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="Y1" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="F2" s="1"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="X2" s="3"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="F3" s="1"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="X3" s="3"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="F4" s="1"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="X4" s="3"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="F5" s="1"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="X5" s="3"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="F6" s="1"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="X6" s="3"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="F7" s="1"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
